--- a/src/Gabriel/Deliverable/Evaluation.xlsx
+++ b/src/Gabriel/Deliverable/Evaluation.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RandomForestClassifier" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
   <si>
     <t>Algorithm</t>
   </si>
@@ -43,13 +43,172 @@
   </si>
   <si>
     <t>Random Forest Classification</t>
+  </si>
+  <si>
+    <t>n=5000</t>
+  </si>
+  <si>
+    <t>m='sqrt'</t>
+  </si>
+  <si>
+    <t>n_jobs=6</t>
+  </si>
+  <si>
+    <t>c='gini'</t>
+  </si>
+  <si>
+    <t>var9(t)</t>
+  </si>
+  <si>
+    <t>MinMax</t>
+  </si>
+  <si>
+    <t>Accuracy: 91.125%</t>
+  </si>
+  <si>
+    <t>Precision: 91.1430758781%</t>
+  </si>
+  <si>
+    <t>Recall: 91.125%</t>
+  </si>
+  <si>
+    <t>FMeasure: 91.0956350781%</t>
+  </si>
+  <si>
+    <t>Accuracy: 32.1880650995%</t>
+  </si>
+  <si>
+    <t>Precision: 59.5875400975%</t>
+  </si>
+  <si>
+    <t>Recall: 32.1880650995%</t>
+  </si>
+  <si>
+    <t>FMeasure: 31.4004953889%</t>
+  </si>
+  <si>
+    <t>n=100</t>
+  </si>
+  <si>
+    <t>c='entropy'</t>
+  </si>
+  <si>
+    <t>Precision: 91.1231948222%</t>
+  </si>
+  <si>
+    <t>FMeasure: 91.1051525352%</t>
+  </si>
+  <si>
+    <t>Accuracy: 35.6841470766%</t>
+  </si>
+  <si>
+    <t>Precision: 61.4326434764%</t>
+  </si>
+  <si>
+    <t>Recall: 35.6841470766%</t>
+  </si>
+  <si>
+    <t>FMeasure: 36.7485767138%</t>
+  </si>
+  <si>
+    <t>n=10000</t>
+  </si>
+  <si>
+    <t>m='log2'</t>
+  </si>
+  <si>
+    <t>Accuracy: 91.225%</t>
+  </si>
+  <si>
+    <t>Precision: 91.2416734215%</t>
+  </si>
+  <si>
+    <t>Recall: 91.225%</t>
+  </si>
+  <si>
+    <t>FMeasure: 91.1967763528%</t>
+  </si>
+  <si>
+    <t>Accuracy: 32.4894514768%</t>
+  </si>
+  <si>
+    <t>Precision: 59.9185276711%</t>
+  </si>
+  <si>
+    <t>Recall: 32.4894514768%</t>
+  </si>
+  <si>
+    <t>FMeasure: 31.8221870775%</t>
+  </si>
+  <si>
+    <t>n=1000</t>
+  </si>
+  <si>
+    <t>Accuracy: 61.3421740004%</t>
+  </si>
+  <si>
+    <t>Precision: 70.7479462839%</t>
+  </si>
+  <si>
+    <t>Recall: 61.3421740004%</t>
+  </si>
+  <si>
+    <t>FMeasure: 64.1863631264%</t>
+  </si>
+  <si>
+    <t>var9(t), var8(t), var10(t), var5(t), var3(t), var12(t), var11(t), var4(t)</t>
+  </si>
+  <si>
+    <t>var9(t), var8(t), var10(t), var5(t), var3(t), var12(t), var11(t), var4(t), var14(t)</t>
+  </si>
+  <si>
+    <t>Accuracy: 53.3252963633%</t>
+  </si>
+  <si>
+    <t>Precision: 68.1809048024%</t>
+  </si>
+  <si>
+    <t>Recall: 53.3252963633%</t>
+  </si>
+  <si>
+    <t>FMeasure: 56.8932110896%</t>
+  </si>
+  <si>
+    <t>var9(t), var8(t), var10(t), var5(t), var3(t), var12(t), var11(t)</t>
+  </si>
+  <si>
+    <t>Accuracy: 58.4287723528%</t>
+  </si>
+  <si>
+    <t>Precision: 71.8181557985%</t>
+  </si>
+  <si>
+    <t>Recall: 58.4287723528%</t>
+  </si>
+  <si>
+    <t>FMeasure: 61.6466792497%</t>
+  </si>
+  <si>
+    <t>L2 Normalization</t>
+  </si>
+  <si>
+    <t>Accuracy: 75.3265019088%</t>
+  </si>
+  <si>
+    <t>Precision: 75.5353578162%</t>
+  </si>
+  <si>
+    <t>Recall: 75.3265019088%</t>
+  </si>
+  <si>
+    <t>FMeasure: 75.4284777631%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +223,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,9 +251,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,16 +559,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H26" sqref="H26:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="5" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="74.140625" customWidth="1"/>
+    <col min="4" max="5" width="24.5703125" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
     <col min="7" max="7" width="37.28515625" customWidth="1"/>
     <col min="8" max="8" width="24.5703125" customWidth="1"/>
@@ -434,6 +605,370 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.4</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.4</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.4</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.4</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/src/Gabriel/Deliverable/Evaluation.xlsx
+++ b/src/Gabriel/Deliverable/Evaluation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="274">
   <si>
     <t>Algorithm</t>
   </si>
@@ -202,13 +202,649 @@
   </si>
   <si>
     <t>FMeasure: 75.4284777631%</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Accuracy: 83.375%</t>
+  </si>
+  <si>
+    <t>Precision: 83.3339412768%</t>
+  </si>
+  <si>
+    <t>Recall: 83.375%</t>
+  </si>
+  <si>
+    <t>FMeasure: 83.3320223712%</t>
+  </si>
+  <si>
+    <t>Accuracy: 85.45%</t>
+  </si>
+  <si>
+    <t>Precision: 85.415934308%</t>
+  </si>
+  <si>
+    <t>Recall: 85.45%</t>
+  </si>
+  <si>
+    <t>FMeasure: 85.4091486591%</t>
+  </si>
+  <si>
+    <t>Accuracy: 50.9543901949%</t>
+  </si>
+  <si>
+    <t>Precision: 65.7619952849%</t>
+  </si>
+  <si>
+    <t>Recall: 50.9543901949%</t>
+  </si>
+  <si>
+    <t>FMeasure: 54.7047772521%</t>
+  </si>
+  <si>
+    <t>Accuracy: 84.65%</t>
+  </si>
+  <si>
+    <t>Precision: 84.6111378669%</t>
+  </si>
+  <si>
+    <t>Recall: 84.65%</t>
+  </si>
+  <si>
+    <t>FMeasure: 84.6097727788%</t>
+  </si>
+  <si>
+    <t>Accuracy: 50.8941129194%</t>
+  </si>
+  <si>
+    <t>Precision: 65.6675956105%</t>
+  </si>
+  <si>
+    <t>Recall: 50.8941129194%</t>
+  </si>
+  <si>
+    <t>FMeasure: 54.6509358431%</t>
+  </si>
+  <si>
+    <t>Accuracy: 83.575%</t>
+  </si>
+  <si>
+    <t>Precision: 83.5350898077%</t>
+  </si>
+  <si>
+    <t>Recall: 83.575%</t>
+  </si>
+  <si>
+    <t>FMeasure: 83.5325393953%</t>
+  </si>
+  <si>
+    <t>Accuracy: 50.8137432188%</t>
+  </si>
+  <si>
+    <t>Precision: 65.2546130776%</t>
+  </si>
+  <si>
+    <t>Recall: 50.8137432188%</t>
+  </si>
+  <si>
+    <t>FMeasure: 54.5931269776%</t>
+  </si>
+  <si>
+    <t>Accuracy: 83.7%</t>
+  </si>
+  <si>
+    <t>Precision: 83.6779661634%</t>
+  </si>
+  <si>
+    <t>Recall: 83.7%</t>
+  </si>
+  <si>
+    <t>FMeasure: 83.6215945504%</t>
+  </si>
+  <si>
+    <t>Accuracy: 59.875426964%</t>
+  </si>
+  <si>
+    <t>Precision: 70.7025717705%</t>
+  </si>
+  <si>
+    <t>Recall: 59.875426964%</t>
+  </si>
+  <si>
+    <t>FMeasure: 62.9296881189%</t>
+  </si>
+  <si>
+    <t>Accuracy: 75.35%</t>
+  </si>
+  <si>
+    <t>Precision: 75.6982965807%</t>
+  </si>
+  <si>
+    <t>Recall: 75.35%</t>
+  </si>
+  <si>
+    <t>FMeasure: 75.4446152037%</t>
+  </si>
+  <si>
+    <t>Accuracy: 54.6112115732%</t>
+  </si>
+  <si>
+    <t>Precision: 68.6765938738%</t>
+  </si>
+  <si>
+    <t>Recall: 54.6112115732%</t>
+  </si>
+  <si>
+    <t>FMeasure: 58.1117887774%</t>
+  </si>
+  <si>
+    <t>Accuracy: 83.275%</t>
+  </si>
+  <si>
+    <t>Precision: 83.2338666601%</t>
+  </si>
+  <si>
+    <t>Recall: 83.275%</t>
+  </si>
+  <si>
+    <t>FMeasure: 83.2346986817%</t>
+  </si>
+  <si>
+    <t>Accuracy: 51.5370705244%</t>
+  </si>
+  <si>
+    <t>Precision: 65.6480919724%</t>
+  </si>
+  <si>
+    <t>Recall: 51.5370705244%</t>
+  </si>
+  <si>
+    <t>FMeasure: 55.273649255%</t>
+  </si>
+  <si>
+    <t>Accuracy: 84.75%</t>
+  </si>
+  <si>
+    <t>Precision: 84.7121296147%</t>
+  </si>
+  <si>
+    <t>Recall: 84.75%</t>
+  </si>
+  <si>
+    <t>FMeasure: 84.7128530407%</t>
+  </si>
+  <si>
+    <t>Accuracy: 51.3160538477%</t>
+  </si>
+  <si>
+    <t>Precision: 65.9254009766%</t>
+  </si>
+  <si>
+    <t>Recall: 51.3160538477%</t>
+  </si>
+  <si>
+    <t>FMeasure: 55.0491432249%</t>
+  </si>
+  <si>
+    <t>Feature Selection</t>
+  </si>
+  <si>
+    <t>RFC</t>
+  </si>
+  <si>
+    <t>Accuracy: 83.425%</t>
+  </si>
+  <si>
+    <t>Precision: 83.3841130773%</t>
+  </si>
+  <si>
+    <t>Recall: 83.425%</t>
+  </si>
+  <si>
+    <t>FMeasure: 83.3806839103%</t>
+  </si>
+  <si>
+    <t>Accuracy: 52.5617842074%</t>
+  </si>
+  <si>
+    <t>Precision: 68.4518329212%</t>
+  </si>
+  <si>
+    <t>Recall: 52.5617842074%</t>
+  </si>
+  <si>
+    <t>FMeasure: 56.1211358782%</t>
+  </si>
+  <si>
+    <t>Accuracy: 85.0%</t>
+  </si>
+  <si>
+    <t>Precision: 85.0600815723%</t>
+  </si>
+  <si>
+    <t>Recall: 85.0%</t>
+  </si>
+  <si>
+    <t>FMeasure: 84.8890448872%</t>
+  </si>
+  <si>
+    <t>Accuracy: 54.3098251959%</t>
+  </si>
+  <si>
+    <t>Precision: 70.3196629907%</t>
+  </si>
+  <si>
+    <t>Recall: 54.3098251959%</t>
+  </si>
+  <si>
+    <t>FMeasure: 57.7335511375%</t>
+  </si>
+  <si>
+    <t>m=6</t>
+  </si>
+  <si>
+    <t>Accuracy: 82.95%</t>
+  </si>
+  <si>
+    <t>Precision: 82.9060386847%</t>
+  </si>
+  <si>
+    <t>Recall: 82.95%</t>
+  </si>
+  <si>
+    <t>FMeasure: 82.9005990151%</t>
+  </si>
+  <si>
+    <t>Accuracy: 59.7347799879%</t>
+  </si>
+  <si>
+    <t>Precision: 70.779682141%</t>
+  </si>
+  <si>
+    <t>Recall: 59.7347799879%</t>
+  </si>
+  <si>
+    <t>FMeasure: 62.810723068%</t>
+  </si>
+  <si>
+    <t>Accuracy: 83.3%</t>
+  </si>
+  <si>
+    <t>Precision: 83.267037037%</t>
+  </si>
+  <si>
+    <t>Recall: 83.3%</t>
+  </si>
+  <si>
+    <t>FMeasure: 83.2279993186%</t>
+  </si>
+  <si>
+    <t>Accuracy: 60.7193088206%</t>
+  </si>
+  <si>
+    <t>Precision: 70.7773286591%</t>
+  </si>
+  <si>
+    <t>Recall: 60.7193088206%</t>
+  </si>
+  <si>
+    <t>FMeasure: 63.6623773604%</t>
+  </si>
+  <si>
+    <t>Precision: 83.68665625%</t>
+  </si>
+  <si>
+    <t>FMeasure: 83.6132404515%</t>
+  </si>
+  <si>
+    <t>Accuracy: 60.5987542696%</t>
+  </si>
+  <si>
+    <t>Precision: 71.1235927955%</t>
+  </si>
+  <si>
+    <t>Recall: 60.5987542696%</t>
+  </si>
+  <si>
+    <t>FMeasure: 63.5826004992%</t>
+  </si>
+  <si>
+    <t>This result not considered as it is slightly better than current best, but takes drastically longer to train</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Accuracy: 83.6%</t>
+  </si>
+  <si>
+    <t>Precision: 83.5853854167%</t>
+  </si>
+  <si>
+    <t>Recall: 83.6%</t>
+  </si>
+  <si>
+    <t>FMeasure: 83.5127081843%</t>
+  </si>
+  <si>
+    <t>Accuracy: 64.8784408278%</t>
+  </si>
+  <si>
+    <t>Precision: 70.7004010204%</t>
+  </si>
+  <si>
+    <t>Recall: 64.8784408278%</t>
+  </si>
+  <si>
+    <t>FMeasure: 66.9779556446%</t>
+  </si>
+  <si>
+    <t>Precision: 83.5873105328%</t>
+  </si>
+  <si>
+    <t>FMeasure: 83.510999897%</t>
+  </si>
+  <si>
+    <t>Accuracy: 65.420936307%</t>
+  </si>
+  <si>
+    <t>Precision: 71.2305137738%</t>
+  </si>
+  <si>
+    <t>Recall: 65.420936307%</t>
+  </si>
+  <si>
+    <t>FMeasure: 67.4942290075%</t>
+  </si>
+  <si>
+    <t>max_depth=6</t>
+  </si>
+  <si>
+    <t>Accuracy: 76.325%</t>
+  </si>
+  <si>
+    <t>Precision: 76.2241191752%</t>
+  </si>
+  <si>
+    <t>Recall: 76.325%</t>
+  </si>
+  <si>
+    <t>FMeasure: 76.1539267815%</t>
+  </si>
+  <si>
+    <t>Accuracy: 66.8474984931%</t>
+  </si>
+  <si>
+    <t>Precision: 73.2146052686%</t>
+  </si>
+  <si>
+    <t>Recall: 66.8474984931%</t>
+  </si>
+  <si>
+    <t>FMeasure: 68.9593137429%</t>
+  </si>
+  <si>
+    <t>max_depth=8</t>
+  </si>
+  <si>
+    <t>Accuracy: 77.775%</t>
+  </si>
+  <si>
+    <t>Precision: 77.6915941005%</t>
+  </si>
+  <si>
+    <t>Recall: 77.775%</t>
+  </si>
+  <si>
+    <t>FMeasure: 77.6342123608%</t>
+  </si>
+  <si>
+    <t>Accuracy: 63.0500301386%</t>
+  </si>
+  <si>
+    <t>Precision: 71.6091115623%</t>
+  </si>
+  <si>
+    <t>Recall: 63.0500301386%</t>
+  </si>
+  <si>
+    <t>FMeasure: 65.6930587176%</t>
+  </si>
+  <si>
+    <t>max_depth=12</t>
+  </si>
+  <si>
+    <t>Accuracy: 64.5770544505%</t>
+  </si>
+  <si>
+    <t>Precision: 71.3708786988%</t>
+  </si>
+  <si>
+    <t>Recall: 64.5770544505%</t>
+  </si>
+  <si>
+    <t>FMeasure: 66.8784217415%</t>
+  </si>
+  <si>
+    <t>Accuracy: 81.45%</t>
+  </si>
+  <si>
+    <t>Precision: 81.4137692199%</t>
+  </si>
+  <si>
+    <t>Recall: 81.45%</t>
+  </si>
+  <si>
+    <t>FMeasure: 81.3434737611%</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Accuracy: 92.225%</t>
+  </si>
+  <si>
+    <t>Precision: 92.2426283695%</t>
+  </si>
+  <si>
+    <t>Recall: 92.225%</t>
+  </si>
+  <si>
+    <t>FMeasure: 92.2022742743%</t>
+  </si>
+  <si>
+    <t>Accuracy: 29.5418006431%</t>
+  </si>
+  <si>
+    <t>Precision: 56.8636059953%</t>
+  </si>
+  <si>
+    <t>Recall: 29.5418006431%</t>
+  </si>
+  <si>
+    <t>FMeasure: 27.247236069%</t>
+  </si>
+  <si>
+    <t>var9(t), var9(t-1), var10(t-1), var8(t), var5(t), var10(t), var5(t-1), var8(t-1), var3(t), var3(t-1), var12(t-1), var12,var11(t-1), var11(t), var4(t),var4(t-1), var14(t),var1(t),var14(t-1), var1(t-1)</t>
+  </si>
+  <si>
+    <t>Accuracy: 82.8%</t>
+  </si>
+  <si>
+    <t>Precision: 82.7610856024%</t>
+  </si>
+  <si>
+    <t>Recall: 82.8%</t>
+  </si>
+  <si>
+    <t>FMeasure: 82.7296652223%</t>
+  </si>
+  <si>
+    <t>Accuracy: 47.9903536977%</t>
+  </si>
+  <si>
+    <t>Precision: 63.0742324764%</t>
+  </si>
+  <si>
+    <t>Recall: 47.9903536977%</t>
+  </si>
+  <si>
+    <t>FMeasure: 51.9449516946%</t>
+  </si>
+  <si>
+    <t>var9(t), var9(t-1), var10(t-1), var8(t), var5(t), var10(t), var5(t-1), var8(t-1), var3(t), var3(t-1), var12(t-1), var12,var11(t-1), var11(t), var4(t),var4(t-1), var14(t),var1(t),var14(t-1)</t>
+  </si>
+  <si>
+    <t>Precision: 84.6168609305%</t>
+  </si>
+  <si>
+    <t>FMeasure: 84.6099121044%</t>
+  </si>
+  <si>
+    <t>Accuracy: 54.6422829582%</t>
+  </si>
+  <si>
+    <t>Precision: 67.0682351991%</t>
+  </si>
+  <si>
+    <t>Recall: 54.6422829582%</t>
+  </si>
+  <si>
+    <t>FMeasure: 58.149340425%</t>
+  </si>
+  <si>
+    <t>var9(t), var9(t-1), var10(t-1), var8(t), var5(t), var10(t), var5(t-1), var8(t-1), var3(t), var3(t-1), var12(t-1), var12,var11(t-1), var11(t), var4(t),var4(t-1)</t>
+  </si>
+  <si>
+    <t>Accuracy: 86.325%</t>
+  </si>
+  <si>
+    <t>Precision: 86.3075980407%</t>
+  </si>
+  <si>
+    <t>Recall: 86.325%</t>
+  </si>
+  <si>
+    <t>FMeasure: 86.2800519715%</t>
+  </si>
+  <si>
+    <t>Accuracy: 62.459807074%</t>
+  </si>
+  <si>
+    <t>Precision: 71.324102%</t>
+  </si>
+  <si>
+    <t>Recall: 62.459807074%</t>
+  </si>
+  <si>
+    <t>FMeasure: 65.1741117068%</t>
+  </si>
+  <si>
+    <t>var9(t), var9(t-1), var10(t-1), var8(t), var5(t), var10(t), var5(t-1), var8(t-1), var3(t), var3(t-1), var12(t-1), var12,var11(t-1), var11(t)</t>
+  </si>
+  <si>
+    <t>Accuracy: 88.175%</t>
+  </si>
+  <si>
+    <t>Precision: 88.2653306102%</t>
+  </si>
+  <si>
+    <t>Recall: 88.175%</t>
+  </si>
+  <si>
+    <t>FMeasure: 88.0966670124%</t>
+  </si>
+  <si>
+    <t>Accuracy: 58.4405144695%</t>
+  </si>
+  <si>
+    <t>Precision: 72.0365563585%</t>
+  </si>
+  <si>
+    <t>Recall: 58.4405144695%</t>
+  </si>
+  <si>
+    <t>FMeasure: 61.6535439301%</t>
+  </si>
+  <si>
+    <t>var9(t), var9(t-1), var10(t-1), var8(t), var5(t), var10(t), var5(t-1), var8(t-1), var3(t), var3(t-1), var12(t-1), var12,var11(t-1), var11(t), var4(t)</t>
+  </si>
+  <si>
+    <t>Accuracy: 87.925%</t>
+  </si>
+  <si>
+    <t>Precision: 87.9615415033%</t>
+  </si>
+  <si>
+    <t>Recall: 87.925%</t>
+  </si>
+  <si>
+    <t>FMeasure: 87.8629941081%</t>
+  </si>
+  <si>
+    <t>Accuracy: 60.5707395498%</t>
+  </si>
+  <si>
+    <t>Precision: 71.4197852005%</t>
+  </si>
+  <si>
+    <t>Recall: 60.5707395498%</t>
+  </si>
+  <si>
+    <t>FMeasure: 63.574076162%</t>
+  </si>
+  <si>
+    <t>Precision: 83.2583133462%</t>
+  </si>
+  <si>
+    <t>FMeasure: 83.2516131116%</t>
+  </si>
+  <si>
+    <t>Accuracy: 50.833835644%</t>
+  </si>
+  <si>
+    <t>Precision: 65.3738674588%</t>
+  </si>
+  <si>
+    <t>Recall: 50.833835644%</t>
+  </si>
+  <si>
+    <t>FMeasure: 54.6071142692%</t>
+  </si>
+  <si>
+    <t>L1 Normalization</t>
+  </si>
+  <si>
+    <t>Accuracy: 83.35%</t>
+  </si>
+  <si>
+    <t>Precision: 83.3091231593%</t>
+  </si>
+  <si>
+    <t>Recall: 83.35%</t>
+  </si>
+  <si>
+    <t>FMeasure: 83.3091523693%</t>
+  </si>
+  <si>
+    <t>Accuracy: 50.7936507937%</t>
+  </si>
+  <si>
+    <t>Precision: 65.3555461815%</t>
+  </si>
+  <si>
+    <t>Recall: 50.7936507937%</t>
+  </si>
+  <si>
+    <t>FMeasure: 54.5689569156%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +865,19 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1F22"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -251,13 +900,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,24 +1212,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:H29"/>
+    <sheetView tabSelected="1" topLeftCell="E100" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="74.140625" customWidth="1"/>
-    <col min="4" max="5" width="24.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="2" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="74.140625" customWidth="1"/>
+    <col min="5" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" customWidth="1"/>
+    <col min="9" max="9" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,25 +1237,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -610,58 +1269,61 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -669,58 +1331,61 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.4</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -728,58 +1393,61 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.4</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -787,46 +1455,61 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
         <v>46</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.4</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -834,50 +1517,65 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" t="s">
         <v>47</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>14</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.4</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>32</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -885,46 +1583,61 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s">
         <v>52</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>14</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.4</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -932,43 +1645,1626 @@
         <v>41</v>
       </c>
       <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
         <v>46</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>57</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.4</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>32</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0.2</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0.2</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0.4</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0.2</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0.4</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0.2</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0.4</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0.4</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0.4</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" t="s">
+        <v>124</v>
+      </c>
+      <c r="D74" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0.4</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J74" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="3">
+        <v>1</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="3">
+        <v>1</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="3">
+        <v>1</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" s="3">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="3">
+        <v>1</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E125" t="s">
+        <v>57</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E129" t="s">
+        <v>265</v>
+      </c>
+      <c r="F129" s="3">
+        <v>0</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/src/Gabriel/Deliverable/Evaluation.xlsx
+++ b/src/Gabriel/Deliverable/Evaluation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="292">
   <si>
     <t>Algorithm</t>
   </si>
@@ -838,13 +838,67 @@
   </si>
   <si>
     <t>FMeasure: 54.5689569156%</t>
+  </si>
+  <si>
+    <t>Accuracy: 68.1133212779%</t>
+  </si>
+  <si>
+    <t>Precision: 73.2057779175%</t>
+  </si>
+  <si>
+    <t>Recall: 68.1133212779%</t>
+  </si>
+  <si>
+    <t>FMeasure: 69.921196765%</t>
+  </si>
+  <si>
+    <t>Accuracy: 69.7%</t>
+  </si>
+  <si>
+    <t>Precision: 69.9594432532%</t>
+  </si>
+  <si>
+    <t>Recall: 69.7%</t>
+  </si>
+  <si>
+    <t>FMeasure: 68.5782038492%</t>
+  </si>
+  <si>
+    <t>max_depth=2</t>
+  </si>
+  <si>
+    <t>random_state=500</t>
+  </si>
+  <si>
+    <t>Accuracy: 69.85%</t>
+  </si>
+  <si>
+    <t>Precision: 70.0042833175%</t>
+  </si>
+  <si>
+    <t>Recall: 69.85%</t>
+  </si>
+  <si>
+    <t>FMeasure: 68.8519520799%</t>
+  </si>
+  <si>
+    <t>Accuracy: 70.323488045%</t>
+  </si>
+  <si>
+    <t>Precision: 73.3411852562%</t>
+  </si>
+  <si>
+    <t>Recall: 70.323488045%</t>
+  </si>
+  <si>
+    <t>FMeasure: 71.5289315994%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,6 +933,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -900,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -911,6 +971,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,6 +983,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -968,7 +1034,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1003,7 +1069,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1212,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E100" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116"/>
+    <sheetView tabSelected="1" topLeftCell="E121" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3265,6 +3331,145 @@
       </c>
       <c r="I132" s="2" t="s">
         <v>273</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" s="3">
+        <v>0</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I135" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="I136" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" s="3">
+        <v>0</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="I139" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I141" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B142" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B143" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/src/Gabriel/Deliverable/Evaluation.xlsx
+++ b/src/Gabriel/Deliverable/Evaluation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -1034,7 +1034,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1069,7 +1069,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1281,7 +1281,7 @@
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E121" workbookViewId="0">
-      <selection activeCell="H129" sqref="H129"/>
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
